--- a/prep/data/parametros.xlsx
+++ b/prep/data/parametros.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="7488"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="7490"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -706,18 +706,18 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="99.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" customWidth="1"/>
+    <col min="4" max="4" width="99.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -731,7 +731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -743,7 +743,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -757,7 +757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -771,7 +771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -785,7 +785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -793,13 +793,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -813,7 +813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -827,7 +827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -841,7 +841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -855,7 +855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -869,7 +869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>23</v>
       </c>
@@ -883,7 +883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
@@ -897,7 +897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>27</v>
       </c>
@@ -911,7 +911,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15" t="s">
         <v>29</v>
       </c>
